--- a/ResultadoEleicoesDistritos/R. A. AÇORES_POVOAÇÃO.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. AÇORES_POVOAÇÃO.xlsx
@@ -597,64 +597,64 @@
         <v>1882</v>
       </c>
       <c r="H2" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I2" t="n">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="J2" t="n">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>220</v>
+      </c>
+      <c r="M2" t="n">
+        <v>14</v>
+      </c>
+      <c r="N2" t="n">
+        <v>152</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>218</v>
-      </c>
-      <c r="M2" t="n">
-        <v>16</v>
-      </c>
-      <c r="N2" t="n">
-        <v>135</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="S2" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="T2" t="n">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="U2" t="n">
+        <v>11</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1201</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1198</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z2" t="n">
         <v>15</v>
       </c>
-      <c r="V2" t="n">
-        <v>1197</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1214</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>16</v>
-      </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
